--- a/docs/stereo_cam_BOM_updated_20240731.xlsx
+++ b/docs/stereo_cam_BOM_updated_20240731.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucsdcloud-my.sharepoint.com/personal/adavey_ucsd_edu/Documents/stereo_repo/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="696" documentId="13_ncr:1_{A268ED73-A091-4228-8008-2EBC7802FCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03D90772-53A0-4F3D-9576-AC076D87A25B}"/>
+  <xr:revisionPtr revIDLastSave="721" documentId="13_ncr:1_{A268ED73-A091-4228-8008-2EBC7802FCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05C33816-0431-416D-9C90-6F3EA5D98D2E}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-55" yWindow="-55" windowWidth="19310" windowHeight="10910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stereo Cam" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="173">
   <si>
     <t xml:space="preserve">TOTAL
 </t>
@@ -578,6 +578,18 @@
   <si>
     <t>Cobalt Chloride Test Paper</t>
   </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/gp/product/B0C9QHS9FD/ref=sw_img_1?smid=A2NNCPWYGRHYNZ&amp;psc=1 </t>
+  </si>
+  <si>
+    <t>USBC 90 Degree Adapter</t>
+  </si>
+  <si>
+    <t>https://www.polycase.com/zh-01l</t>
+  </si>
+  <si>
+    <t>ZH Series Stainless Steel Latch</t>
+  </si>
 </sst>
 </file>
 
@@ -588,7 +600,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -795,8 +807,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2D2D2D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="23">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -884,12 +902,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,7 +1090,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1377,15 +1389,15 @@
     <xf numFmtId="0" fontId="19" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1413,7 +1425,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1422,7 +1434,7 @@
     <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1434,10 +1446,10 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1449,7 +1461,7 @@
     <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1465,13 +1477,13 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1501,9 +1513,6 @@
     <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1519,7 +1528,13 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1570,11 +1585,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1599,6 +1614,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1803,10 +1822,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z981"/>
+  <dimension ref="A1:Z982"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.6"/>
@@ -1823,45 +1842,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="164" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
       <c r="G1" s="42"/>
       <c r="H1" s="42"/>
       <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:26" ht="13.5" x14ac:dyDescent="0.6">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
       <c r="G2" s="42"/>
       <c r="H2" s="42"/>
       <c r="I2" s="42"/>
     </row>
     <row r="3" spans="1:26" ht="25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="163" t="s">
         <v>52</v>
       </c>
       <c r="B3" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="156"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="158"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="159"/>
       <c r="G3" s="46"/>
-      <c r="I3" s="154" t="s">
+      <c r="I3" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="155"/>
+      <c r="J3" s="156"/>
       <c r="K3" s="44"/>
       <c r="L3" s="44"/>
       <c r="M3" s="44"/>
@@ -1880,15 +1899,15 @@
       <c r="Z3" s="44"/>
     </row>
     <row r="4" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="162"/>
+      <c r="A4" s="163"/>
       <c r="B4" s="53">
-        <f>SUM(B6:B63)</f>
-        <v>4590.2099999999973</v>
-      </c>
-      <c r="C4" s="159"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="161"/>
+        <f>SUM(B6:B64)</f>
+        <v>4603.7699999999977</v>
+      </c>
+      <c r="C4" s="160"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="162"/>
       <c r="G4" s="46"/>
       <c r="I4" s="15" t="s">
         <v>2</v>
@@ -1927,7 +1946,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="95.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="147" t="s">
+      <c r="A6" s="146" t="s">
         <v>132</v>
       </c>
       <c r="B6" s="97">
@@ -1956,7 +1975,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="28.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="147" t="s">
+      <c r="A7" s="146" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="97">
@@ -1981,7 +2000,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="147" t="s">
+      <c r="A8" s="146" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="97">
@@ -2007,7 +2026,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="31" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="148" t="s">
+      <c r="A9" s="147" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="98">
@@ -2069,7 +2088,7 @@
       <c r="I11" s="42"/>
     </row>
     <row r="12" spans="1:26" ht="79.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="147" t="s">
+      <c r="A12" s="146" t="s">
         <v>131</v>
       </c>
       <c r="B12" s="97">
@@ -2094,7 +2113,7 @@
       <c r="I12" s="42"/>
     </row>
     <row r="13" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="147" t="s">
+      <c r="A13" s="146" t="s">
         <v>63</v>
       </c>
       <c r="B13" s="97">
@@ -2113,7 +2132,7 @@
       <c r="I13" s="42"/>
     </row>
     <row r="14" spans="1:26" ht="35" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="147" t="s">
+      <c r="A14" s="146" t="s">
         <v>126</v>
       </c>
       <c r="B14" s="97">
@@ -2154,7 +2173,7 @@
       <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:26" ht="56.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="149" t="s">
+      <c r="A16" s="148" t="s">
         <v>50</v>
       </c>
       <c r="B16" s="98"/>
@@ -2173,7 +2192,7 @@
       <c r="I16" s="42"/>
     </row>
     <row r="17" spans="1:9" ht="39.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="147" t="s">
+      <c r="A17" s="146" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="97">
@@ -2192,7 +2211,7 @@
       <c r="I17" s="42"/>
     </row>
     <row r="18" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="147" t="s">
+      <c r="A18" s="146" t="s">
         <v>60</v>
       </c>
       <c r="B18" s="97">
@@ -2211,7 +2230,7 @@
       <c r="I18" s="42"/>
     </row>
     <row r="19" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="147" t="s">
+      <c r="A19" s="146" t="s">
         <v>120</v>
       </c>
       <c r="B19" s="108">
@@ -2270,7 +2289,7 @@
       <c r="I21" s="42"/>
     </row>
     <row r="22" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="147" t="s">
+      <c r="A22" s="146" t="s">
         <v>69</v>
       </c>
       <c r="B22" s="97">
@@ -2282,14 +2301,14 @@
       <c r="D22" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="165"/>
-      <c r="F22" s="165"/>
+      <c r="E22" s="166"/>
+      <c r="F22" s="166"/>
       <c r="G22" s="100"/>
       <c r="H22" s="42"/>
       <c r="I22" s="42"/>
     </row>
     <row r="23" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A23" s="147" t="s">
+      <c r="A23" s="146" t="s">
         <v>97</v>
       </c>
       <c r="B23" s="97">
@@ -2330,7 +2349,7 @@
       <c r="I24" s="61"/>
     </row>
     <row r="25" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="147" t="s">
+      <c r="A25" s="146" t="s">
         <v>113</v>
       </c>
       <c r="B25" s="97">
@@ -2349,7 +2368,7 @@
       <c r="I25" s="42"/>
     </row>
     <row r="26" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="147" t="s">
+      <c r="A26" s="146" t="s">
         <v>114</v>
       </c>
       <c r="B26" s="97">
@@ -2368,7 +2387,7 @@
       <c r="I26" s="42"/>
     </row>
     <row r="27" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="147" t="s">
+      <c r="A27" s="146" t="s">
         <v>115</v>
       </c>
       <c r="B27" s="97">
@@ -2380,14 +2399,14 @@
       <c r="D27" s="84">
         <v>1</v>
       </c>
-      <c r="E27" s="165"/>
-      <c r="F27" s="165"/>
+      <c r="E27" s="166"/>
+      <c r="F27" s="166"/>
       <c r="G27" s="100"/>
       <c r="H27" s="42"/>
       <c r="I27" s="42"/>
     </row>
     <row r="28" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="147" t="s">
+      <c r="A28" s="146" t="s">
         <v>95</v>
       </c>
       <c r="B28" s="97">
@@ -2405,170 +2424,170 @@
       <c r="H28" s="42"/>
       <c r="I28" s="42"/>
     </row>
-    <row r="29" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A29" s="145" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" s="131">
-        <v>4.75</v>
-      </c>
-      <c r="C29" s="110" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="166"/>
-      <c r="F29" s="166"/>
+    <row r="29" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="171" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="97">
+        <v>7.97</v>
+      </c>
+      <c r="C29" s="101" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" s="84">
+        <v>1</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
       <c r="G29" s="100"/>
       <c r="H29" s="42"/>
       <c r="I29" s="42"/>
     </row>
-    <row r="30" spans="1:9" ht="41.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A30" s="145" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B30" s="131">
-        <v>16.97</v>
-      </c>
-      <c r="C30" s="115" t="s">
-        <v>135</v>
+        <v>4.75</v>
+      </c>
+      <c r="C30" s="110" t="s">
+        <v>123</v>
       </c>
       <c r="D30" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="166"/>
-      <c r="F30" s="166"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="167"/>
       <c r="G30" s="100"/>
       <c r="H30" s="42"/>
       <c r="I30" s="42"/>
     </row>
-    <row r="31" spans="1:9" ht="32.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:9" ht="41.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A31" s="145" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B31" s="131">
-        <v>9.49</v>
-      </c>
-      <c r="C31" s="133" t="s">
-        <v>136</v>
-      </c>
-      <c r="D31" s="85">
-        <v>1</v>
-      </c>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
+        <v>16.97</v>
+      </c>
+      <c r="C31" s="115" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="167"/>
+      <c r="F31" s="167"/>
       <c r="G31" s="100"/>
       <c r="H31" s="42"/>
       <c r="I31" s="42"/>
     </row>
-    <row r="32" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="150" t="s">
+    <row r="32" spans="1:9" ht="32.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A32" s="145" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" s="131">
+        <v>9.49</v>
+      </c>
+      <c r="C32" s="133" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" s="85">
+        <v>1</v>
+      </c>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+    </row>
+    <row r="33" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A33" s="149" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="139">
+      <c r="B33" s="139">
         <v>24.99</v>
       </c>
-      <c r="C32" s="133" t="s">
+      <c r="C33" s="133" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="89">
+      <c r="D33" s="89">
         <v>1</v>
       </c>
-      <c r="E32" s="90"/>
-      <c r="F32" s="138"/>
-      <c r="G32" s="100"/>
-      <c r="I32" s="42"/>
-    </row>
-    <row r="33" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A33" s="147" t="s">
+      <c r="E33" s="90"/>
+      <c r="F33" s="138"/>
+      <c r="G33" s="100"/>
+      <c r="I33" s="42"/>
+    </row>
+    <row r="34" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A34" s="146" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="97">
+      <c r="B34" s="97">
         <v>8.5500000000000007</v>
       </c>
-      <c r="C33" s="140" t="s">
+      <c r="C34" s="140" t="s">
         <v>140</v>
-      </c>
-      <c r="D33" s="85">
-        <v>1</v>
-      </c>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85" t="s">
-        <v>141</v>
-      </c>
-      <c r="G33" s="100"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-    </row>
-    <row r="34" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A34" s="147" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34" s="97">
-        <v>8.73</v>
-      </c>
-      <c r="C34" s="140" t="s">
-        <v>142</v>
       </c>
       <c r="D34" s="85">
         <v>1</v>
       </c>
       <c r="E34" s="85"/>
       <c r="F34" s="85" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G34" s="100"/>
       <c r="H34" s="42"/>
       <c r="I34" s="42"/>
     </row>
-    <row r="35" spans="1:9" ht="26" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A35" s="146" t="s">
-        <v>157</v>
-      </c>
-      <c r="B35" s="131">
-        <v>7.78</v>
-      </c>
-      <c r="C35" s="133" t="s">
-        <v>151</v>
+        <v>104</v>
+      </c>
+      <c r="B35" s="97">
+        <v>8.73</v>
+      </c>
+      <c r="C35" s="140" t="s">
+        <v>142</v>
       </c>
       <c r="D35" s="85">
         <v>1</v>
       </c>
       <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
+      <c r="F35" s="85" t="s">
+        <v>143</v>
+      </c>
       <c r="G35" s="100"/>
       <c r="H35" s="42"/>
       <c r="I35" s="42"/>
     </row>
     <row r="36" spans="1:9" ht="26" x14ac:dyDescent="0.6">
-      <c r="A36" s="146" t="s">
-        <v>158</v>
+      <c r="A36" s="170" t="s">
+        <v>157</v>
       </c>
       <c r="B36" s="131">
-        <v>11.06</v>
+        <v>7.78</v>
       </c>
       <c r="C36" s="133" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D36" s="85">
         <v>1</v>
       </c>
       <c r="E36" s="85"/>
       <c r="F36" s="85"/>
-      <c r="G36" s="40"/>
+      <c r="G36" s="100"/>
       <c r="H36" s="42"/>
       <c r="I36" s="42"/>
     </row>
     <row r="37" spans="1:9" ht="26" x14ac:dyDescent="0.6">
-      <c r="A37" s="146" t="s">
-        <v>160</v>
+      <c r="A37" s="170" t="s">
+        <v>158</v>
       </c>
       <c r="B37" s="131">
-        <v>8.9499999999999993</v>
+        <v>11.06</v>
       </c>
       <c r="C37" s="133" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D37" s="85">
         <v>1</v>
@@ -2580,14 +2599,14 @@
       <c r="I37" s="42"/>
     </row>
     <row r="38" spans="1:9" ht="26" x14ac:dyDescent="0.6">
-      <c r="A38" s="146" t="s">
-        <v>162</v>
+      <c r="A38" s="170" t="s">
+        <v>160</v>
       </c>
       <c r="B38" s="131">
-        <v>8.99</v>
-      </c>
-      <c r="C38" s="151" t="s">
-        <v>161</v>
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="C38" s="133" t="s">
+        <v>159</v>
       </c>
       <c r="D38" s="85">
         <v>1</v>
@@ -2599,14 +2618,14 @@
       <c r="I38" s="42"/>
     </row>
     <row r="39" spans="1:9" ht="26" x14ac:dyDescent="0.6">
-      <c r="A39" s="146" t="s">
-        <v>163</v>
+      <c r="A39" s="170" t="s">
+        <v>162</v>
       </c>
       <c r="B39" s="131">
-        <v>15.99</v>
-      </c>
-      <c r="C39" s="133" t="s">
-        <v>152</v>
+        <v>8.99</v>
+      </c>
+      <c r="C39" s="150" t="s">
+        <v>161</v>
       </c>
       <c r="D39" s="85">
         <v>1</v>
@@ -2618,14 +2637,14 @@
       <c r="I39" s="42"/>
     </row>
     <row r="40" spans="1:9" ht="26" x14ac:dyDescent="0.6">
-      <c r="A40" s="146" t="s">
-        <v>165</v>
+      <c r="A40" s="170" t="s">
+        <v>163</v>
       </c>
       <c r="B40" s="131">
-        <v>15.98</v>
+        <v>15.99</v>
       </c>
       <c r="C40" s="133" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D40" s="85">
         <v>1</v>
@@ -2636,15 +2655,15 @@
       <c r="H40" s="42"/>
       <c r="I40" s="42"/>
     </row>
-    <row r="41" spans="1:9" ht="32" x14ac:dyDescent="0.6">
-      <c r="A41" s="146" t="s">
-        <v>166</v>
+    <row r="41" spans="1:9" ht="26" x14ac:dyDescent="0.6">
+      <c r="A41" s="170" t="s">
+        <v>165</v>
       </c>
       <c r="B41" s="131">
-        <v>22.51</v>
+        <v>15.98</v>
       </c>
       <c r="C41" s="133" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="D41" s="85">
         <v>1</v>
@@ -2655,57 +2674,65 @@
       <c r="H41" s="42"/>
       <c r="I41" s="42"/>
     </row>
-    <row r="42" spans="1:9" ht="26" x14ac:dyDescent="0.6">
-      <c r="A42" s="146" t="s">
-        <v>167</v>
-      </c>
-      <c r="B42" s="97">
-        <v>10.99</v>
+    <row r="42" spans="1:9" ht="32" x14ac:dyDescent="0.6">
+      <c r="A42" s="170" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42" s="131">
+        <v>22.51</v>
       </c>
       <c r="C42" s="133" t="s">
-        <v>154</v>
-      </c>
-      <c r="D42" s="95">
+        <v>153</v>
+      </c>
+      <c r="D42" s="85">
         <v>1</v>
       </c>
-      <c r="E42" s="86"/>
-      <c r="F42" s="86"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
       <c r="G42" s="40"/>
       <c r="H42" s="42"/>
       <c r="I42" s="42"/>
     </row>
-    <row r="43" spans="1:9" ht="27.25" customHeight="1" x14ac:dyDescent="1">
-      <c r="A43" s="146" t="s">
-        <v>168</v>
+    <row r="43" spans="1:9" ht="26" x14ac:dyDescent="0.6">
+      <c r="A43" s="170" t="s">
+        <v>167</v>
       </c>
       <c r="B43" s="97">
-        <v>7.97</v>
+        <v>10.99</v>
       </c>
       <c r="C43" s="133" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D43" s="95">
         <v>1</v>
       </c>
       <c r="E43" s="86"/>
       <c r="F43" s="86"/>
-      <c r="G43" s="130"/>
+      <c r="G43" s="40"/>
       <c r="H43" s="42"/>
       <c r="I43" s="42"/>
     </row>
-    <row r="44" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.6">
-      <c r="A44" s="95"/>
-      <c r="B44" s="97"/>
-      <c r="C44" s="95"/>
-      <c r="D44" s="95"/>
+    <row r="44" spans="1:9" ht="27.25" customHeight="1" x14ac:dyDescent="1">
+      <c r="A44" s="170" t="s">
+        <v>168</v>
+      </c>
+      <c r="B44" s="97">
+        <v>7.97</v>
+      </c>
+      <c r="C44" s="133" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" s="95">
+        <v>1</v>
+      </c>
       <c r="E44" s="86"/>
       <c r="F44" s="86"/>
-      <c r="G44" s="100"/>
+      <c r="G44" s="130"/>
       <c r="H44" s="42"/>
       <c r="I44" s="42"/>
     </row>
-    <row r="45" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A45" s="95"/>
+    <row r="45" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.6">
+      <c r="A45" s="146"/>
       <c r="B45" s="97"/>
       <c r="C45" s="95"/>
       <c r="D45" s="95"/>
@@ -2715,161 +2742,172 @@
       <c r="H45" s="42"/>
       <c r="I45" s="42"/>
     </row>
-    <row r="46" spans="1:9" ht="41.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A46" s="167" t="s">
-        <v>80</v>
-      </c>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
-      <c r="E46" s="167"/>
-      <c r="F46" s="167"/>
+    <row r="46" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A46" s="146" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" s="97">
+        <v>5.59</v>
+      </c>
+      <c r="C46" s="133" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" s="95">
+        <v>1</v>
+      </c>
+      <c r="E46" s="86"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="100"/>
       <c r="H46" s="42"/>
       <c r="I46" s="42"/>
     </row>
-    <row r="47" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A47" s="111" t="s">
+    <row r="47" spans="1:9" ht="41.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A47" s="168" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" s="168"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="168"/>
+      <c r="E47" s="168"/>
+      <c r="F47" s="168"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+    </row>
+    <row r="48" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A48" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="B47" s="112" t="s">
+      <c r="B48" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="113" t="s">
+      <c r="C48" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="113" t="s">
+      <c r="D48" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="113" t="s">
+      <c r="E48" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="F47" s="113" t="s">
+      <c r="F48" s="113" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="36.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A48" s="144" t="s">
+    <row r="49" spans="1:7" ht="36.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A49" s="144" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="97">
+      <c r="B49" s="97">
         <v>23.75</v>
       </c>
-      <c r="C48" s="116" t="s">
+      <c r="C49" s="116" t="s">
         <v>81</v>
-      </c>
-      <c r="D48" s="84">
-        <v>0</v>
-      </c>
-      <c r="E48" s="86" t="s">
-        <v>83</v>
-      </c>
-      <c r="F48" s="86"/>
-    </row>
-    <row r="49" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A49" s="145" t="s">
-        <v>85</v>
-      </c>
-      <c r="B49" s="97">
-        <v>13.75</v>
-      </c>
-      <c r="C49" s="116" t="s">
-        <v>90</v>
       </c>
       <c r="D49" s="84">
         <v>0</v>
       </c>
       <c r="E49" s="86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F49" s="86"/>
     </row>
-    <row r="50" spans="1:7" ht="44.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A50" s="85" t="s">
-        <v>86</v>
+    <row r="50" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A50" s="145" t="s">
+        <v>85</v>
       </c>
       <c r="B50" s="97">
-        <v>10.63</v>
+        <v>13.75</v>
       </c>
       <c r="C50" s="116" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D50" s="84">
         <v>0</v>
       </c>
       <c r="E50" s="86" t="s">
+        <v>84</v>
+      </c>
+      <c r="F50" s="86"/>
+    </row>
+    <row r="51" spans="1:7" ht="44.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A51" s="85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="97">
+        <v>10.63</v>
+      </c>
+      <c r="C51" s="116" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="84">
+        <v>0</v>
+      </c>
+      <c r="E51" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="F50" s="86"/>
-    </row>
-    <row r="51" spans="1:7" ht="32" x14ac:dyDescent="0.6">
-      <c r="A51" s="117" t="s">
+      <c r="F51" s="86"/>
+    </row>
+    <row r="52" spans="1:7" ht="32" x14ac:dyDescent="0.6">
+      <c r="A52" s="117" t="s">
         <v>88</v>
       </c>
-      <c r="B51" s="97">
+      <c r="B52" s="97">
         <v>36.25</v>
       </c>
-      <c r="C51" s="116" t="s">
+      <c r="C52" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="D51" s="83">
+      <c r="D52" s="83">
         <v>0</v>
       </c>
-      <c r="E51" s="85" t="s">
+      <c r="E52" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="F51" s="85"/>
-    </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A52" s="145" t="s">
+      <c r="F52" s="85"/>
+    </row>
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A53" s="145" t="s">
         <v>148</v>
       </c>
-      <c r="B52" s="170">
+      <c r="B53" s="153">
         <v>9.3800000000000008</v>
       </c>
-      <c r="C52" s="152" t="s">
+      <c r="C53" s="151" t="s">
         <v>145</v>
       </c>
-      <c r="D52" s="143">
+      <c r="D53" s="143">
         <v>0</v>
       </c>
-      <c r="E52" s="143" t="s">
+      <c r="E53" s="143" t="s">
         <v>149</v>
       </c>
-      <c r="F52" s="100"/>
-    </row>
-    <row r="53" spans="1:7" ht="36.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A53" s="146" t="s">
+      <c r="F53" s="100"/>
+    </row>
+    <row r="54" spans="1:7" ht="36.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A54" s="170" t="s">
         <v>147</v>
       </c>
-      <c r="B53" s="169">
+      <c r="B54" s="152">
         <v>43.75</v>
       </c>
-      <c r="C53" s="152" t="s">
+      <c r="C54" s="151" t="s">
         <v>146</v>
       </c>
-      <c r="D53" s="143">
+      <c r="D54" s="143">
         <v>2</v>
       </c>
-      <c r="E53" s="143" t="s">
+      <c r="E54" s="143" t="s">
         <v>150</v>
       </c>
-      <c r="F53" s="100"/>
-    </row>
-    <row r="54" spans="1:7" ht="13" x14ac:dyDescent="0.6">
-      <c r="G54" s="50"/>
+      <c r="F54" s="100"/>
     </row>
     <row r="55" spans="1:7" ht="13" x14ac:dyDescent="0.6">
       <c r="G55" s="50"/>
     </row>
-    <row r="56" spans="1:7" ht="13" x14ac:dyDescent="0.6"/>
-    <row r="57" spans="1:7" ht="13" x14ac:dyDescent="0.6">
-      <c r="A57" s="48"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="50"/>
-    </row>
+    <row r="56" spans="1:7" ht="13" x14ac:dyDescent="0.6">
+      <c r="G56" s="50"/>
+    </row>
+    <row r="57" spans="1:7" ht="13" x14ac:dyDescent="0.6"/>
     <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.6">
       <c r="A58" s="48"/>
       <c r="B58" s="49"/>
@@ -2878,104 +2916,103 @@
       <c r="E58" s="50"/>
       <c r="F58" s="50"/>
     </row>
-    <row r="59" spans="1:7" ht="21" x14ac:dyDescent="1">
-      <c r="A59" s="153" t="s">
+    <row r="59" spans="1:7" ht="13" x14ac:dyDescent="0.6">
+      <c r="A59" s="48"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
+    </row>
+    <row r="60" spans="1:7" ht="21" x14ac:dyDescent="1">
+      <c r="A60" s="154" t="s">
         <v>24</v>
       </c>
-      <c r="B59" s="153"/>
-      <c r="C59" s="153"/>
-      <c r="D59" s="153"/>
-      <c r="E59" s="153"/>
-      <c r="F59" s="153"/>
-    </row>
-    <row r="60" spans="1:7" ht="21" x14ac:dyDescent="0.6">
-      <c r="A60" s="57" t="s">
+      <c r="B60" s="154"/>
+      <c r="C60" s="154"/>
+      <c r="D60" s="154"/>
+      <c r="E60" s="154"/>
+      <c r="F60" s="154"/>
+    </row>
+    <row r="61" spans="1:7" ht="21" x14ac:dyDescent="0.6">
+      <c r="A61" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="B60" s="58" t="s">
+      <c r="B61" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="59" t="s">
+      <c r="C61" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="59" t="s">
+      <c r="D61" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="E60" s="60" t="s">
+      <c r="E61" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="F60" s="60" t="s">
+      <c r="F61" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G60" s="60" t="s">
+      <c r="G61" s="60" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="166" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A61" s="96" t="s">
+    <row r="62" spans="1:7" ht="166" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A62" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B61" s="97">
+      <c r="B62" s="97">
         <v>13.88</v>
       </c>
-      <c r="C61" s="45" t="s">
+      <c r="C62" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="D61" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="E61" s="137" t="s">
+      <c r="D62" s="95">
+        <v>0</v>
+      </c>
+      <c r="E62" s="137" t="s">
         <v>139</v>
-      </c>
-      <c r="F61" s="40"/>
-      <c r="G61" s="86"/>
-    </row>
-    <row r="62" spans="1:7" ht="135" x14ac:dyDescent="0.6">
-      <c r="A62" s="96" t="s">
-        <v>31</v>
-      </c>
-      <c r="B62" s="97">
-        <v>12.99</v>
-      </c>
-      <c r="C62" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="D62" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="E62" s="19" t="s">
-        <v>33</v>
       </c>
       <c r="F62" s="40"/>
       <c r="G62" s="86"/>
     </row>
-    <row r="63" spans="1:7" ht="133.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:7" ht="135" x14ac:dyDescent="0.6">
       <c r="A63" s="96" t="s">
-        <v>34</v>
-      </c>
-      <c r="B63" s="99">
-        <v>11.99</v>
-      </c>
-      <c r="C63" s="47" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="B63" s="97">
+        <v>12.99</v>
+      </c>
+      <c r="C63" s="45" t="s">
+        <v>32</v>
       </c>
       <c r="D63" s="95" t="s">
         <v>19</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F63" s="40"/>
       <c r="G63" s="86"/>
     </row>
-    <row r="64" spans="1:7" ht="13" x14ac:dyDescent="0.6">
-      <c r="A64" s="48"/>
-      <c r="B64" s="49"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="50"/>
-      <c r="G64" s="50"/>
+    <row r="64" spans="1:7" ht="133.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A64" s="96" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" s="99">
+        <v>11.99</v>
+      </c>
+      <c r="C64" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D64" s="95">
+        <v>0</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F64" s="40"/>
+      <c r="G64" s="86"/>
     </row>
     <row r="65" spans="1:7" ht="13" x14ac:dyDescent="0.6">
       <c r="A65" s="48"/>
@@ -3344,6 +3381,7 @@
       <c r="D105" s="48"/>
       <c r="E105" s="50"/>
       <c r="F105" s="50"/>
+      <c r="G105" s="50"/>
     </row>
     <row r="106" spans="1:7" ht="13" x14ac:dyDescent="0.6">
       <c r="A106" s="48"/>
@@ -3412,8 +3450,10 @@
     <row r="114" spans="1:6" ht="13" x14ac:dyDescent="0.6">
       <c r="A114" s="48"/>
       <c r="B114" s="49"/>
-      <c r="C114" s="51"/>
-      <c r="D114" s="51"/>
+      <c r="C114" s="48"/>
+      <c r="D114" s="48"/>
+      <c r="E114" s="50"/>
+      <c r="F114" s="50"/>
     </row>
     <row r="115" spans="1:6" ht="13" x14ac:dyDescent="0.6">
       <c r="A115" s="48"/>
@@ -8563,7 +8603,7 @@
       <c r="C972" s="51"/>
       <c r="D972" s="51"/>
     </row>
-    <row r="973" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="973" spans="1:4" ht="13" x14ac:dyDescent="0.6">
       <c r="A973" s="48"/>
       <c r="B973" s="49"/>
       <c r="C973" s="51"/>
@@ -8617,24 +8657,30 @@
       <c r="C981" s="51"/>
       <c r="D981" s="51"/>
     </row>
+    <row r="982" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A982" s="48"/>
+      <c r="B982" s="49"/>
+      <c r="C982" s="51"/>
+      <c r="D982" s="51"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A60:F60"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="C3:F4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A46:F46"/>
     <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C61" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C62" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C63" r:id="rId3" display="https://www.amazon.com/XLX-Male-Female-Female-Female-Assortment-Stainless/dp/B07ZTB21YZ/ref=pd_di_sccai_5?pd_rd_w=uYFcx&amp;pf_rd_p=c9443270-b914-4430-a90b-72e3e7e784e0&amp;pf_rd_r=DDZKKXCFFPMKJTDJ4TVR&amp;pd_rd_r=35923862-b85f-46f5-8265-a9184be50288&amp;pd_rd_wg=PGenc&amp;pd_rd_i=B07ZTB21YZ&amp;psc=1" xr:uid="{F6A07AC4-28C3-3642-A2ED-921C4432D35F}"/>
+    <hyperlink ref="C62" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C63" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C64" r:id="rId3" display="https://www.amazon.com/XLX-Male-Female-Female-Female-Assortment-Stainless/dp/B07ZTB21YZ/ref=pd_di_sccai_5?pd_rd_w=uYFcx&amp;pf_rd_p=c9443270-b914-4430-a90b-72e3e7e784e0&amp;pf_rd_r=DDZKKXCFFPMKJTDJ4TVR&amp;pd_rd_r=35923862-b85f-46f5-8265-a9184be50288&amp;pd_rd_wg=PGenc&amp;pd_rd_i=B07ZTB21YZ&amp;psc=1" xr:uid="{F6A07AC4-28C3-3642-A2ED-921C4432D35F}"/>
     <hyperlink ref="C16" r:id="rId4" xr:uid="{82DD85E5-4107-074D-956C-1B1A6970E1B2}"/>
     <hyperlink ref="C6" r:id="rId5" location="ZH-100802-37" xr:uid="{CA27B291-E9F9-4258-BAA1-2F6186B4F144}"/>
     <hyperlink ref="C7" r:id="rId6" location="ZX-1008K-01" xr:uid="{38125201-0679-428D-8185-FCDCB1A19B1C}"/>
@@ -8645,10 +8691,10 @@
     <hyperlink ref="C9" r:id="rId11" xr:uid="{49CF1AC1-1065-4D94-883E-ACB4B568694A}"/>
     <hyperlink ref="C8" r:id="rId12" xr:uid="{87FD5066-9E1F-43EB-9B5B-3018C0C18348}"/>
     <hyperlink ref="C10" r:id="rId13" xr:uid="{878B1A8C-4A71-47FD-9AC2-7CED629AD05E}"/>
-    <hyperlink ref="C48" r:id="rId14" display="https://www.uqgoptics.com/product/schott-af45-plate/" xr:uid="{70F1985A-5A22-449C-A42F-955683CA3EEC}"/>
-    <hyperlink ref="C49" r:id="rId15" display="https://www.uqgoptics.com/product/float-glass-plate-2/" xr:uid="{6A8A509F-3437-44F8-B0B4-B263714B34A9}"/>
-    <hyperlink ref="C50" r:id="rId16" display="https://www.uqgoptics.com/product/borosilicate-plate/" xr:uid="{2EF475A0-387C-4193-A2C8-B4E63886FB3D}"/>
-    <hyperlink ref="C51" r:id="rId17" display="https://www.uqgoptics.com/product/ar-vis-both-sides-precision/" xr:uid="{E4590A17-7FBE-4D12-AAF7-3D6404A5309E}"/>
+    <hyperlink ref="C49" r:id="rId14" display="https://www.uqgoptics.com/product/schott-af45-plate/" xr:uid="{70F1985A-5A22-449C-A42F-955683CA3EEC}"/>
+    <hyperlink ref="C50" r:id="rId15" display="https://www.uqgoptics.com/product/float-glass-plate-2/" xr:uid="{6A8A509F-3437-44F8-B0B4-B263714B34A9}"/>
+    <hyperlink ref="C51" r:id="rId16" display="https://www.uqgoptics.com/product/borosilicate-plate/" xr:uid="{2EF475A0-387C-4193-A2C8-B4E63886FB3D}"/>
+    <hyperlink ref="C52" r:id="rId17" display="https://www.uqgoptics.com/product/ar-vis-both-sides-precision/" xr:uid="{E4590A17-7FBE-4D12-AAF7-3D6404A5309E}"/>
     <hyperlink ref="C28" r:id="rId18" display="https://www.amazon.com/3M-5200FC-Marine-Adhesive-Sealant/dp/B003E1ULRE/ref=sr_1_3_pp?dib=eyJ2IjoiMSJ9.pqFbzQgIltKzxr3SPeV64qWl9GiTEAMJnwlT_ooQUO6hy5i28oQtjyjjGw3d1Pqg0WGE5w6IrxISR-5TRvrlYm-xKggiet0fsYQSQqfUcxBgvM7cSGw9nsFZgpcmAbCjQcGm1GmuZPrNbxbz4Zz0jtYixkLIcKn6gWWqAiocs3HkselxK8Qf6zfQx0JqGsLVVMVrZu4NDiFA8f781o1N-_qIOfYT0YMjukHQ4lmqhuo._C_sIlGZlMqGxpAsHdO1Y5f4bNEFU5w8uJfSlkq-lXY&amp;dib_tag=se&amp;keywords=3m+5200&amp;qid=1720554171&amp;sr=8-3 " xr:uid="{BD179972-3B3D-4CA7-B870-4C009F6E89BD}"/>
     <hyperlink ref="C15" r:id="rId19" xr:uid="{71015814-C71A-468A-B1DB-191996053B75}"/>
     <hyperlink ref="C27" r:id="rId20" xr:uid="{16796611-78A6-44A5-9B37-20523F6D044D}"/>
@@ -8658,26 +8704,28 @@
     <hyperlink ref="C19" r:id="rId24" location="CG-30" xr:uid="{4E75A2FD-71B1-4DEA-93E6-73D02EDE24AE}"/>
     <hyperlink ref="C13" r:id="rId25" xr:uid="{5EC714C4-C69E-4883-B1A7-0BC73929C1C1}"/>
     <hyperlink ref="C24" r:id="rId26" xr:uid="{D3742EE1-4921-4120-B54B-9C59816C6632}"/>
-    <hyperlink ref="C31" r:id="rId27" xr:uid="{8C718BF1-0C87-4B63-AD58-B837A15DFEA7}"/>
+    <hyperlink ref="C32" r:id="rId27" xr:uid="{8C718BF1-0C87-4B63-AD58-B837A15DFEA7}"/>
     <hyperlink ref="C23" r:id="rId28" xr:uid="{189C35F9-1CF5-4AC6-90E9-AD8E6A8111A4}"/>
-    <hyperlink ref="C32" r:id="rId29" display="https://www.amazon.com/Foldable-Bluetooth-Keyboard-Rechargeable-Battery-Dark/dp/B08YRKL1FF/ref=asc_df_B08YRKL1FF/?tag=hyprod-20&amp;linkCode=df0&amp;hvadid=692875362841&amp;hvpos=&amp;hvnetw=g&amp;hvrand=6061653269193728871&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9031300&amp;hvtargid=pla-2281435178378&amp;psc=1&amp;mcid=a6a2fed6c65930edab39adb2c51f00f0&amp;hvocijid=6061653269193728871-B08YRKL1FF-&amp;hvexpln=73&amp;gad_source=1" xr:uid="{097AAE65-E675-4E2F-8366-DD0B0ACBD7F8}"/>
-    <hyperlink ref="C33" r:id="rId30" xr:uid="{5B301A54-2FC6-4F0B-A36F-14D337E00B7F}"/>
-    <hyperlink ref="C34" r:id="rId31" xr:uid="{02C88933-5143-4A12-AB00-62BFBFE420BD}"/>
+    <hyperlink ref="C33" r:id="rId29" display="https://www.amazon.com/Foldable-Bluetooth-Keyboard-Rechargeable-Battery-Dark/dp/B08YRKL1FF/ref=asc_df_B08YRKL1FF/?tag=hyprod-20&amp;linkCode=df0&amp;hvadid=692875362841&amp;hvpos=&amp;hvnetw=g&amp;hvrand=6061653269193728871&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9031300&amp;hvtargid=pla-2281435178378&amp;psc=1&amp;mcid=a6a2fed6c65930edab39adb2c51f00f0&amp;hvocijid=6061653269193728871-B08YRKL1FF-&amp;hvexpln=73&amp;gad_source=1" xr:uid="{097AAE65-E675-4E2F-8366-DD0B0ACBD7F8}"/>
+    <hyperlink ref="C34" r:id="rId30" xr:uid="{5B301A54-2FC6-4F0B-A36F-14D337E00B7F}"/>
+    <hyperlink ref="C35" r:id="rId31" xr:uid="{02C88933-5143-4A12-AB00-62BFBFE420BD}"/>
     <hyperlink ref="C17" r:id="rId32" xr:uid="{639F6927-2B71-48D5-B476-EE6FCDA9BED0}"/>
-    <hyperlink ref="C52" r:id="rId33" xr:uid="{F8D62560-4729-40D5-880C-B5A47D3EC407}"/>
-    <hyperlink ref="C53" r:id="rId34" xr:uid="{233F8F1B-BE2F-4BD7-8EAE-C3316257BF88}"/>
-    <hyperlink ref="C35" r:id="rId35" xr:uid="{1BE308DC-5CFD-4567-A689-EC86EBB81537}"/>
-    <hyperlink ref="C36" r:id="rId36" xr:uid="{332162F3-8967-4A12-83B0-461DFD919594}"/>
-    <hyperlink ref="C37" r:id="rId37" xr:uid="{28B3F681-A813-4D70-BCDC-9B2465BA65AC}"/>
-    <hyperlink ref="C38" r:id="rId38" xr:uid="{E1D92C20-6884-4476-AB81-CF2DB47363D2}"/>
-    <hyperlink ref="C39" r:id="rId39" xr:uid="{7F6F7DE7-BE97-419D-85CD-04205F743B20}"/>
-    <hyperlink ref="C40" r:id="rId40" xr:uid="{287D8963-E0AB-4BB9-9B2D-2319F090F4E5}"/>
-    <hyperlink ref="C41" r:id="rId41" xr:uid="{D95EEA0B-5C1E-4EA9-9382-FBCD52DC63E7}"/>
-    <hyperlink ref="C42" r:id="rId42" xr:uid="{6A5F23DE-64F3-4945-A58D-92D6BA6B3179}"/>
-    <hyperlink ref="C43" r:id="rId43" xr:uid="{D9AB6CC5-014E-4805-B373-4DA5EFB586BD}"/>
+    <hyperlink ref="C53" r:id="rId33" xr:uid="{F8D62560-4729-40D5-880C-B5A47D3EC407}"/>
+    <hyperlink ref="C54" r:id="rId34" xr:uid="{233F8F1B-BE2F-4BD7-8EAE-C3316257BF88}"/>
+    <hyperlink ref="C36" r:id="rId35" xr:uid="{1BE308DC-5CFD-4567-A689-EC86EBB81537}"/>
+    <hyperlink ref="C37" r:id="rId36" xr:uid="{332162F3-8967-4A12-83B0-461DFD919594}"/>
+    <hyperlink ref="C38" r:id="rId37" xr:uid="{28B3F681-A813-4D70-BCDC-9B2465BA65AC}"/>
+    <hyperlink ref="C39" r:id="rId38" xr:uid="{E1D92C20-6884-4476-AB81-CF2DB47363D2}"/>
+    <hyperlink ref="C40" r:id="rId39" xr:uid="{7F6F7DE7-BE97-419D-85CD-04205F743B20}"/>
+    <hyperlink ref="C41" r:id="rId40" xr:uid="{287D8963-E0AB-4BB9-9B2D-2319F090F4E5}"/>
+    <hyperlink ref="C42" r:id="rId41" xr:uid="{D95EEA0B-5C1E-4EA9-9382-FBCD52DC63E7}"/>
+    <hyperlink ref="C43" r:id="rId42" xr:uid="{6A5F23DE-64F3-4945-A58D-92D6BA6B3179}"/>
+    <hyperlink ref="C44" r:id="rId43" xr:uid="{D9AB6CC5-014E-4805-B373-4DA5EFB586BD}"/>
+    <hyperlink ref="C46" r:id="rId44" xr:uid="{4482D07F-8DAB-47A5-9B94-C1EDAE88ABD2}"/>
+    <hyperlink ref="C29" r:id="rId45" xr:uid="{6D9DBA2A-7475-47E2-A908-D177461B15DD}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="41" orientation="portrait" r:id="rId44"/>
+  <pageSetup scale="41" orientation="portrait" r:id="rId46"/>
 </worksheet>
 </file>
 
@@ -8703,39 +8751,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="164" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="13.5" x14ac:dyDescent="0.7">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" ht="21" x14ac:dyDescent="1">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="169" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="156"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="158"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="159"/>
       <c r="F3" s="6"/>
       <c r="G3" s="14"/>
       <c r="H3" s="82" t="s">
@@ -8744,14 +8792,14 @@
       <c r="I3" s="79"/>
     </row>
     <row r="4" spans="1:9" ht="18.5" x14ac:dyDescent="0.9">
-      <c r="A4" s="168"/>
+      <c r="A4" s="169"/>
       <c r="B4" s="1">
         <f>SUM(B6:B30)</f>
         <v>402.15999999999997</v>
       </c>
-      <c r="C4" s="159"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="161"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="162"/>
       <c r="F4" s="6"/>
       <c r="G4" s="14"/>
       <c r="H4" s="77" t="s">
